--- a/assets/reports/archive/respuesta_1RO_A_SECUNDARIA.xlsx
+++ b/assets/reports/archive/respuesta_1RO_A_SECUNDARIA.xlsx
@@ -725,7 +725,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
